--- a/python/data_analysiss_ct.xlsx
+++ b/python/data_analysiss_ct.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create To Release" sheetId="2" r:id="rId1"/>
     <sheet name="Release to Dispatch" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Dispatch to Delivey" sheetId="4" r:id="rId3"/>
+    <sheet name="Dispatch to Delivery" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>CSC</t>
   </si>
@@ -224,6 +225,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Standard_Small-UKBlocked'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Percentile is in minutes </t>
+  </si>
+  <si>
+    <t>1. Percentile is in minutes</t>
+  </si>
+  <si>
+    <t>2. Percentile indicates how many minutes elapsed from the delivery time.</t>
+  </si>
+  <si>
+    <t>2. Percentile indicates how early it is from the Stamped Shipment Date</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TESCO_StandardPOPUP-UKBlocked'</t>
   </si>
 </sst>
 </file>
@@ -247,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +371,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,8 +505,8 @@
       <xdr:rowOff>19846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>362412</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1348689</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>158752</xdr:rowOff>
     </xdr:to>
@@ -891,25 +921,25 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9"/>
       <c r="E8" s="14" t="s">
         <v>22</v>
@@ -1081,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection sqref="A1:J4"/>
+    <sheetView zoomScale="94" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1127,7 @@
     <col min="8" max="8" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.1640625" style="10" bestFit="1" customWidth="1"/>
@@ -1136,25 +1166,28 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1181,6 +1214,9 @@
       </c>
       <c r="J4" s="12">
         <v>85</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1224,7 +1260,7 @@
         <v>11051</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C19" si="0">B6/$B$1*100</f>
+        <f t="shared" ref="C6:C18" si="0">B6/$B$1*100</f>
         <v>3.9142277272260375</v>
       </c>
       <c r="D6" s="11">
@@ -2123,18 +2159,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -2150,7 +2187,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
@@ -2162,30 +2199,709 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="L3" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
       <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12">
+        <v>99</v>
+      </c>
+      <c r="E4" s="12">
+        <v>98</v>
+      </c>
+      <c r="F4" s="12">
+        <v>97</v>
+      </c>
+      <c r="G4" s="12">
+        <v>96</v>
+      </c>
+      <c r="H4" s="12">
+        <v>95</v>
+      </c>
+      <c r="I4" s="12">
+        <v>90</v>
+      </c>
+      <c r="J4" s="12">
+        <v>85</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>251030</v>
+      </c>
+      <c r="C5">
+        <f>B5/$B$1*100</f>
+        <v>76.515340864062821</v>
+      </c>
+      <c r="D5">
+        <v>18644</v>
+      </c>
+      <c r="E5">
+        <v>14881</v>
+      </c>
+      <c r="F5">
+        <v>12180</v>
+      </c>
+      <c r="G5">
+        <v>12180</v>
+      </c>
+      <c r="H5">
+        <v>9333</v>
+      </c>
+      <c r="I5">
+        <v>6226</v>
+      </c>
+      <c r="J5">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>26531</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C43" si="0">B6/$B$1*100</f>
+        <v>8.0867964325556727</v>
+      </c>
+      <c r="D6">
+        <v>3791</v>
+      </c>
+      <c r="E6">
+        <v>2302</v>
+      </c>
+      <c r="F6">
+        <v>1966</v>
+      </c>
+      <c r="G6">
+        <v>1239</v>
+      </c>
+      <c r="H6">
+        <v>966</v>
+      </c>
+      <c r="I6">
+        <v>640</v>
+      </c>
+      <c r="J6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>15636</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.7659398069971166</v>
+      </c>
+      <c r="D7">
+        <v>2590</v>
+      </c>
+      <c r="E7">
+        <v>1268</v>
+      </c>
+      <c r="F7">
+        <v>1081</v>
+      </c>
+      <c r="G7">
+        <v>972</v>
+      </c>
+      <c r="H7">
+        <v>872</v>
+      </c>
+      <c r="I7">
+        <v>-58</v>
+      </c>
+      <c r="J7">
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>14745</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.4943580490005433</v>
+      </c>
+      <c r="D8">
+        <v>18617</v>
+      </c>
+      <c r="E8">
+        <v>14326</v>
+      </c>
+      <c r="F8">
+        <v>11497</v>
+      </c>
+      <c r="G8">
+        <v>10007</v>
+      </c>
+      <c r="H8">
+        <v>8667</v>
+      </c>
+      <c r="I8">
+        <v>5712</v>
+      </c>
+      <c r="J8">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>11140</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.3955339888685008</v>
+      </c>
+      <c r="D9">
+        <v>18106</v>
+      </c>
+      <c r="E9">
+        <v>15807</v>
+      </c>
+      <c r="F9">
+        <v>13738</v>
+      </c>
+      <c r="G9">
+        <v>12014</v>
+      </c>
+      <c r="H9">
+        <v>10802</v>
+      </c>
+      <c r="I9">
+        <v>7129</v>
+      </c>
+      <c r="J9">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>3802</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.1588707563445277</v>
+      </c>
+      <c r="D10">
+        <v>24481</v>
+      </c>
+      <c r="E10">
+        <v>8795</v>
+      </c>
+      <c r="F10">
+        <v>372</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1554</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.47366784728021993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>705</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.2148879229939222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>683</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.20818220057425368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>428</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.13045678161900523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>369</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.11247325331171244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>265</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8.07734746005523E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>193</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.8827473954364516E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>173</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.2731362663756783E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4.2672779034254052E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.8042111936795518E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.6213278549613198E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.103158395259664E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.0117167259005479E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.9812361694475096E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.7983528307292777E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.6154694920110461E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.2497028145745829E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.0058583629502739E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7.6201391132596514E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>4.8768890324861775E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>4.2672779034254055E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>4.2672779034254055E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.9624723388950187E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3.9624723388950187E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.5240278226519304E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.5240278226519304E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>9.1441669359115828E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>9.1441669359115828E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>6.0961112906077219E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6.0961112906077219E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <f>B41/$B$1*100</f>
+        <v>6.0961112906077219E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3.0480556453038609E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3.0480556453038609E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1">
+        <v>266754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12">
@@ -2215,32 +2931,11 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>251030</v>
+        <v>214921</v>
       </c>
       <c r="C5">
         <f>B5/$B$1*100</f>
-        <v>76.515340864062821</v>
-      </c>
-      <c r="D5">
-        <v>18644</v>
-      </c>
-      <c r="E5">
-        <v>14881</v>
-      </c>
-      <c r="F5">
-        <v>12180</v>
-      </c>
-      <c r="G5">
-        <v>12180</v>
-      </c>
-      <c r="H5">
-        <v>9333</v>
-      </c>
-      <c r="I5">
-        <v>6226</v>
-      </c>
-      <c r="J5">
-        <v>4549</v>
+        <v>80.568988656215083</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2248,32 +2943,11 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>26531</v>
+        <v>24205</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C43" si="0">B6/$B$1*100</f>
-        <v>8.0867964325556727</v>
-      </c>
-      <c r="D6">
-        <v>3791</v>
-      </c>
-      <c r="E6">
-        <v>2302</v>
-      </c>
-      <c r="F6">
-        <v>1966</v>
-      </c>
-      <c r="G6">
-        <v>1239</v>
-      </c>
-      <c r="H6">
-        <v>966</v>
-      </c>
-      <c r="I6">
-        <v>640</v>
-      </c>
-      <c r="J6">
-        <v>479</v>
+        <f t="shared" ref="C6:C32" si="0">B6/$B$1*100</f>
+        <v>9.0739032966703412</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2281,527 +2955,311 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>15636</v>
+        <v>14519</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>4.7659398069971166</v>
-      </c>
-      <c r="D7">
-        <v>2590</v>
-      </c>
-      <c r="E7">
-        <v>1268</v>
-      </c>
-      <c r="F7">
-        <v>1081</v>
-      </c>
-      <c r="G7">
-        <v>972</v>
-      </c>
-      <c r="H7">
-        <v>872</v>
-      </c>
-      <c r="I7">
-        <v>-58</v>
-      </c>
-      <c r="J7">
-        <v>-186</v>
+        <v>5.4428424690913726</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>14745</v>
+        <v>9755</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>4.4943580490005433</v>
-      </c>
-      <c r="D8">
-        <v>18617</v>
-      </c>
-      <c r="E8">
-        <v>14326</v>
-      </c>
-      <c r="F8">
-        <v>11497</v>
-      </c>
-      <c r="G8">
-        <v>10007</v>
-      </c>
-      <c r="H8">
-        <v>8667</v>
-      </c>
-      <c r="I8">
-        <v>5712</v>
-      </c>
-      <c r="J8">
-        <v>4307</v>
+        <v>3.6569273562908151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>11140</v>
+        <v>1436</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>3.3955339888685008</v>
-      </c>
-      <c r="D9">
-        <v>18106</v>
-      </c>
-      <c r="E9">
-        <v>15807</v>
-      </c>
-      <c r="F9">
-        <v>13738</v>
-      </c>
-      <c r="G9">
-        <v>12014</v>
-      </c>
-      <c r="H9">
-        <v>10802</v>
-      </c>
-      <c r="I9">
-        <v>7129</v>
-      </c>
-      <c r="J9">
-        <v>5446</v>
+        <v>0.53832369898858123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>3802</v>
+        <v>385</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1.1588707563445277</v>
-      </c>
-      <c r="D10">
-        <v>24481</v>
-      </c>
-      <c r="E10">
-        <v>8795</v>
-      </c>
-      <c r="F10">
-        <v>372</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1366</v>
+        <v>0.14432773266755139</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>1554</v>
+        <v>331</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.47366784728021993</v>
+        <v>0.12408436237132339</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>705</v>
+        <v>254</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.2148879229939222</v>
+        <v>9.5218815837813109E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>683</v>
+        <v>179</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.20818220057425368</v>
+        <v>6.7103023759718688E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>428</v>
+        <v>159</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.13045678161900523</v>
+        <v>5.9605479205560183E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.11247325331171244</v>
+        <v>4.6484776235782781E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>8.07734746005523E-2</v>
+        <v>3.0739932672049906E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5.8827473954364516E-2</v>
+        <v>2.4367019801015168E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>5.2731362663756783E-2</v>
+        <v>2.324238811789139E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>4.2672779034254052E-2</v>
+        <v>1.7994106929980432E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.8042111936795518E-2</v>
+        <v>1.724435247456458E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2.6213278549613198E-2</v>
+        <v>1.724435247456458E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2.103158395259664E-2</v>
+        <v>1.4245334652901174E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2.0117167259005479E-2</v>
+        <v>1.1246316831237769E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1.9812361694475096E-2</v>
+        <v>6.7477900987426608E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.7983528307292777E-2</v>
+        <v>5.248281187910959E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1.6154694920110461E-2</v>
+        <v>5.248281187910959E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.2497028145745829E-2</v>
+        <v>3.7487722770792567E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>1.0058583629502739E-2</v>
+        <v>1.8743861385396284E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>7.6201391132596514E-3</v>
+        <v>1.124631683123777E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>4.8768890324861775E-3</v>
+        <v>7.4975445541585134E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>4.2672779034254055E-3</v>
+        <v>7.4975445541585134E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>4.2672779034254055E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>3.9624723388950187E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>3.9624723388950187E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1.5240278226519304E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>1.5240278226519304E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>9.1441669359115828E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>9.1441669359115828E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>6.0961112906077219E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>6.0961112906077219E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <f>B41/$B$1*100</f>
-        <v>6.0961112906077219E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>3.0480556453038609E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>3.0480556453038609E-4</v>
+        <v>3.7487722770792567E-4</v>
       </c>
     </row>
   </sheetData>
